--- a/1-SystemDocs/Connections.xlsx
+++ b/1-SystemDocs/Connections.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId1"/>
     <sheet name="Pinout ETH DEEK" sheetId="2" r:id="rId2"/>
     <sheet name="JTAG conn" sheetId="3" r:id="rId3"/>
+    <sheet name="Flash usage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>ETH*</t>
   </si>
@@ -257,13 +258,46 @@
   </si>
   <si>
     <t>maroon</t>
+  </si>
+  <si>
+    <t>Total memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One sensor </t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Lasts for</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +316,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -374,6 +416,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -700,7 +747,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,4 +1420,132 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="15">
+        <v>4000000</v>
+      </c>
+      <c r="D2" s="16">
+        <v>4000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="15">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <f>C3*12</f>
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <f>C5*C2/C4</f>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="D6">
+        <f>D5*D2/D4</f>
+        <v>166666666.66666666</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>C6/3600</f>
+        <v>46.296296296296291</v>
+      </c>
+      <c r="D7">
+        <f>D6/3600</f>
+        <v>46296.296296296292</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>D7/24</f>
+        <v>1929.0123456790122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>D8/365</f>
+        <v>5.2849653306274309</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>